--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EE4C6-FE77-624A-9AE2-EEF6C6B3331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48DA6-4868-F341-9D88-2C7F384E2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
+    <workbookView xWindow="-20" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,37 +44,37 @@
     <t>Dolar</t>
   </si>
   <si>
-    <t>Otistics</t>
-  </si>
-  <si>
     <t>392 + 2(*)</t>
   </si>
   <si>
-    <t>Los Yahoo</t>
-  </si>
-  <si>
-    <t>Out of PO</t>
-  </si>
-  <si>
-    <t>Team of Outs</t>
-  </si>
-  <si>
-    <t>MaltaSpor</t>
-  </si>
-  <si>
     <t>398 - 2(*)</t>
   </si>
   <si>
-    <t>NSY</t>
-  </si>
-  <si>
-    <t>TrendyOwls</t>
-  </si>
-  <si>
-    <t>Orthopedics United</t>
-  </si>
-  <si>
     <t>* Zach trade deadlinedan önce takas olursa, 2 dolar MaltaSpordan Otisticlere geçicek.</t>
+  </si>
+  <si>
+    <t>Los Yahoo 🍯</t>
+  </si>
+  <si>
+    <t>Team of Outs 🧙🏼</t>
+  </si>
+  <si>
+    <t>NSY 🇸🇾</t>
+  </si>
+  <si>
+    <t>TrendyOwls 🦉</t>
+  </si>
+  <si>
+    <t>MaltaSpor 🫄🏿</t>
+  </si>
+  <si>
+    <t>Out of PO 🕋</t>
+  </si>
+  <si>
+    <t>Orthopedics United 🏥</t>
+  </si>
+  <si>
+    <t>Otistics 🤥</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,16 +483,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>403</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>403</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>398</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>400</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48DA6-4868-F341-9D88-2C7F384E2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38165382-AE5F-8A43-8FFB-92A36E2B7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -531,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2"/>
     </row>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38165382-AE5F-8A43-8FFB-92A36E2B7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928CD265-9E79-964E-B011-872F4739A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Takım</t>
   </si>
   <si>
     <t>Dolar</t>
-  </si>
-  <si>
-    <t>392 + 2(*)</t>
-  </si>
-  <si>
-    <t>398 - 2(*)</t>
-  </si>
-  <si>
-    <t>* Zach trade deadlinedan önce takas olursa, 2 dolar MaltaSpordan Otisticlere geçicek.</t>
   </si>
   <si>
     <t>Los Yahoo 🍯</t>
@@ -464,7 +455,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,16 +474,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>394</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>402</v>
@@ -501,7 +492,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>403</v>
@@ -510,7 +501,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>406</v>
@@ -519,16 +510,16 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>396</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>399</v>
@@ -537,7 +528,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>400</v>
@@ -546,7 +537,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>400</v>
@@ -554,9 +545,7 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928CD265-9E79-964E-B011-872F4739A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F228A494-7104-1E45-AB94-03EB28079D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F228A494-7104-1E45-AB94-03EB28079D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE816A6C-8AF6-4041-9F74-9831E0BBF423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="2"/>
     </row>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE816A6C-8AF6-4041-9F74-9831E0BBF423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68704259-766A-D94E-823C-87DC10420A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Takım</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Otistics 🤥</t>
+  </si>
+  <si>
+    <t>13.02.2024- Otistics Kel'el Ware karşılığında Out of Po'ya 2 Dolar vermiştir. (395-404)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -495,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -550,7 +553,9 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68704259-766A-D94E-823C-87DC10420A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46522F3E-342C-1E49-8E7E-5B58E56C5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="17080" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Takım</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>13.02.2024- Otistics Kel'el Ware karşılığında Out of Po'ya 2 Dolar vermiştir. (395-404)</t>
+  </si>
+  <si>
+    <t>19.02.2024- Otistics Portis karşılığında (ya da dize yatırma da diyebiliriz) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
   </si>
 </sst>
 </file>
@@ -117,10 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,12 +464,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -480,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -489,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -560,6 +566,9 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="2"/>
     </row>
   </sheetData>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46522F3E-342C-1E49-8E7E-5B58E56C5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE30E1E9-6769-3F40-A896-40FA16DC5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,10 @@
     <t>Otistics 🤥</t>
   </si>
   <si>
-    <t>13.02.2024- Otistics Kel'el Ware karşılığında Out of Po'ya 2 Dolar vermiştir. (395-404)</t>
-  </si>
-  <si>
-    <t>19.02.2024- Otistics Portis karşılığında (ya da dize yatırma da diyebiliriz) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
+    <t>19.02.2025 - Otistics Portis karşılığında (ya da dize yatırma da diyebiliriz) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
+  </si>
+  <si>
+    <t>13.02.2025 - Otistics Kel'el Ware karşılığında Out of Po'ya 2 Dolar vermiştir. (395-404)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,14 +560,14 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
     </row>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE30E1E9-6769-3F40-A896-40FA16DC5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0498D-8A6B-AD41-A65F-83EB8C634B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Takım</t>
   </si>
@@ -68,10 +68,13 @@
     <t>Otistics 🤥</t>
   </si>
   <si>
-    <t>19.02.2025 - Otistics Portis karşılığında (ya da dize yatırma da diyebiliriz) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
-  </si>
-  <si>
     <t>13.02.2025 - Otistics Kel'el Ware karşılığında Out of Po'ya 2 Dolar vermiştir. (395-404)</t>
+  </si>
+  <si>
+    <t>21.02.2025 - Out of PO GTJ karşılığında (Wemby'i unutma bedeli) Los Yahoo'ya 1 Dolar vermiştir. (403-401)</t>
+  </si>
+  <si>
+    <t>19.02.2025 - Otistics Portis karşılığında (dize yatırma eylemi Portisin 25 maç ceza almasıyla tersine döndü) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D35D5A-7D64-F543-AC2B-EA1171E0AE99}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -504,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -560,16 +563,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0498D-8A6B-AD41-A65F-83EB8C634B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3ADC9-EF39-E840-926A-E55630BD1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Takım</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>19.02.2025 - Otistics Portis karşılığında (dize yatırma eylemi Portisin 25 maç ceza almasıyla tersine döndü) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
+  </si>
+  <si>
+    <t>22.02.2025 - Out of PO Vassell karşılığında MaltaSpor'a 1 Dolar vermiştir. (401-399)</t>
   </si>
 </sst>
 </file>
@@ -464,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D35D5A-7D64-F543-AC2B-EA1171E0AE99}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -507,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -525,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -579,6 +582,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3ADC9-EF39-E840-926A-E55630BD1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7573F-6E76-E243-8C20-2C276F973746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>19.02.2025 - Otistics Portis karşılığında (dize yatırma eylemi Portisin 25 maç ceza almasıyla tersine döndü) Los Yahoo'ya 1 Dolar vermiştir. (394-400)</t>
   </si>
   <si>
-    <t>22.02.2025 - Out of PO Vassell karşılığında MaltaSpor'a 1 Dolar vermiştir. (401-399)</t>
+    <t>22.02.2025 - Out of PO Vassell karşılığında MaltaSpor'a 2 Dolar vermiştir. (401-399)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7573F-6E76-E243-8C20-2C276F973746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02586925-C419-D445-A363-484963DCBFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Takım</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>22.02.2025 - Out of PO Vassell karşılığında MaltaSpor'a 2 Dolar vermiştir. (401-399)</t>
+  </si>
+  <si>
+    <t>08.03.2025 - Out of PO Bam Adebayo karşılığında NSY'ye 2 Dolara vermiştir. (399-401)</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D35D5A-7D64-F543-AC2B-EA1171E0AE99}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -537,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -587,6 +590,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02586925-C419-D445-A363-484963DCBFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968EE91-0B4A-0444-AC3C-F5A8C85D5249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Takım</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>08.03.2025 - Out of PO Bam Adebayo karşılığında NSY'ye 2 Dolara vermiştir. (399-401)</t>
+  </si>
+  <si>
+    <t>08.03.2025 - Otistics Cj+Tobias karşılığında NSY'ye 4 dolar vermiştir. (390-405)</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D35D5A-7D64-F543-AC2B-EA1171E0AE99}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -540,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -595,6 +598,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Parasal_Durum.xlsx
+++ b/data/Parasal_Durum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968EE91-0B4A-0444-AC3C-F5A8C85D5249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CFC4D-C587-9749-B30D-538DC05705A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="20300" xr2:uid="{4116A517-F9C1-3949-86A8-6F69F4324A19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Takım</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>08.03.2025 - Otistics Cj+Tobias karşılığında NSY'ye 4 dolar vermiştir. (390-405)</t>
+  </si>
+  <si>
+    <t>10.03.2025 - Out of PO Markkanen karşılığında NSY'ye 1 dolar vermiştir. (398-406)</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D35D5A-7D64-F543-AC2B-EA1171E0AE99}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -543,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -603,6 +606,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
